--- a/资产负债表/605186.xlsx
+++ b/资产负债表/605186.xlsx
@@ -769,14 +769,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -789,65 +789,61 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2018-12-31 00:00:00</t>
+          <t>2020-06-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>355391175.36</v>
+        <v>543932526.79</v>
       </c>
       <c r="P2" t="n">
-        <v>2421927.19</v>
+        <v>1793011.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>133857419.05</v>
+        <v>170125991.84</v>
       </c>
       <c r="R2" t="n">
-        <v>30.6326715915</v>
+        <v>35.2981385961</v>
       </c>
       <c r="S2" t="n">
-        <v>115880647.65</v>
+        <v>157820711.15</v>
       </c>
       <c r="T2" t="n">
-        <v>27.1267856259</v>
+        <v>38.9306190033</v>
       </c>
       <c r="U2" t="n">
-        <v>38007090.58</v>
+        <v>30560906.47</v>
       </c>
       <c r="V2" t="n">
-        <v>21.2253396875</v>
+        <v>-16.799397901</v>
       </c>
       <c r="W2" t="n">
-        <v>99827880.04000001</v>
+        <v>161844007.91</v>
       </c>
       <c r="X2" t="n">
-        <v>6864713.65</v>
+        <v>19036403.78</v>
       </c>
       <c r="Y2" t="n">
-        <v>132.2634183286</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>26791303.27</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>-16.6169738224</v>
-      </c>
+        <v>66.1520397362</v>
+      </c>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
-        <v>255563295.32</v>
+        <v>382088518.88</v>
       </c>
       <c r="AC2" t="n">
-        <v>43.2236818117</v>
+        <v>28.5415024069</v>
       </c>
       <c r="AD2" t="n">
-        <v>34.895354861</v>
+        <v>45.1796863483</v>
       </c>
       <c r="AE2" t="n">
-        <v>17.4162996935</v>
+        <v>109.067163767</v>
       </c>
       <c r="AF2" t="n">
-        <v>331.6387086771</v>
+        <v>418.1649147499</v>
       </c>
       <c r="AG2" t="n">
-        <v>28.0895776151</v>
+        <v>29.7544272385</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
